--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\iai\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE09D19-0078-4ADE-973A-6D154AC172CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106C4C98-876A-4839-90D4-32F634E149A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,18 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Current Name</t>
   </si>
   <si>
     <t>New Name</t>
-  </si>
-  <si>
-    <t>8932.docx</t>
-  </si>
-  <si>
-    <t>32.docx</t>
   </si>
 </sst>
 </file>
@@ -354,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,11 +369,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
